--- a/medicine/Pharmacie/Doravirine/Doravirine.xlsx
+++ b/medicine/Pharmacie/Doravirine/Doravirine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La doravirine est un antirétroviral, vendue sous la marque Pifeltro[1].
+La doravirine est un antirétroviral, vendue sous la marque Pifeltro.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur non nucléosidique de la transcriptase inverse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur non nucléosidique de la transcriptase inverse.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter le VIH/SIDA[1]. Elle est prise en association avec d'autres médicaments anti-VIH[1]. Elle est pris par voie orale, généralement une fois par jour[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter le VIH/SIDA. Elle est prise en association avec d'autres médicaments anti-VIH. Elle est pris par voie orale, généralement une fois par jour.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent des nausées, des étourdissements, des maux de tête, de la fatigue, de la diarrhée et des rêves anormaux; d'autres effets secondaires peuvent inclure le syndrome de reconstitution immunitaire[1]. La sécurité pendant la grossesse n'est pas claire[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent des nausées, des étourdissements, des maux de tête, de la fatigue, de la diarrhée et des rêves anormaux; d'autres effets secondaires peuvent inclure le syndrome de reconstitution immunitaire. La sécurité pendant la grossesse n'est pas claire.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La doravirine a été approuvée pour un usage médical aux États-Unis et en Europe en 2018[3].Au Royaume-Uni, un mois de médicament coûte au NHS environ 470 livre sterling  à partir de 2021[4]. Ce montant aux États-Unis est d'environ 1 500 dollar américain[5]. Il est également disponible sous la forme d'une association doravirine/lamivudine/ténofovir[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La doravirine a été approuvée pour un usage médical aux États-Unis et en Europe en 2018.Au Royaume-Uni, un mois de médicament coûte au NHS environ 470 livre sterling  à partir de 2021. Ce montant aux États-Unis est d'environ 1 500 dollar américain. Il est également disponible sous la forme d'une association doravirine/lamivudine/ténofovir.
 </t>
         </is>
       </c>
